--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_320_承認グループの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_320_承認グループの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\PO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\20_チェックイン\07_会計\03338\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1230" windowWidth="14715" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="408" yWindow="1236" windowWidth="14712" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1103,23 +1103,6 @@
     <phoneticPr fontId="55"/>
   </si>
   <si>
-    <t>栄永 浩士</t>
-    <rPh sb="0" eb="1">
-      <t>サカエ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロシ</t>
-    </rPh>
-    <phoneticPr fontId="55"/>
-  </si>
-  <si>
-    <t>小澤 雅弘　→　栄永 浩士</t>
-    <phoneticPr fontId="55"/>
-  </si>
-  <si>
     <t xml:space="preserve">白木 香歩 </t>
     <phoneticPr fontId="55"/>
   </si>
@@ -1135,25 +1118,8 @@
     <phoneticPr fontId="55"/>
   </si>
   <si>
-    <t>高橋 穣　or　浅葉 優也</t>
-    <rPh sb="8" eb="10">
-      <t>アサバ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウヤ</t>
-    </rPh>
-    <phoneticPr fontId="55"/>
-  </si>
-  <si>
     <t>長妻 謙平</t>
     <phoneticPr fontId="55"/>
-  </si>
-  <si>
-    <t>栄永部長</t>
-  </si>
-  <si>
-    <t>05249</t>
-    <phoneticPr fontId="38"/>
   </si>
   <si>
     <t>05734</t>
@@ -1167,6 +1133,113 @@
     <t>小澤副部長</t>
     <phoneticPr fontId="38"/>
   </si>
+  <si>
+    <t>02584</t>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>福田部長</t>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>02584</t>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>福田 敬仁</t>
+    <phoneticPr fontId="55"/>
+  </si>
+  <si>
+    <r>
+      <t>小澤 雅弘　→　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>福田 敬仁</t>
+    </r>
+    <phoneticPr fontId="55"/>
+  </si>
+  <si>
+    <r>
+      <t>高橋 穣　</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>or　浅葉 優也</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>アサバ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウヤ</t>
+    </rPh>
+    <phoneticPr fontId="55"/>
+  </si>
+  <si>
+    <t>伊藤園　中川</t>
+    <rPh sb="0" eb="3">
+      <t>イトウエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>承認者変更　栄永部長→福田部長　浅葉課長代理削除</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>エイナガブチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アサバ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>カチョウダイリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
 </sst>
 </file>
 
@@ -1176,7 +1249,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1564,8 +1637,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,12 +1747,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1664,6 +1760,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,7 +2303,7 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2211,19 +2325,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="4" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2372,39 +2486,51 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="27" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="15" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="19" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="19" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="51" fillId="20" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="27" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="26" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="27" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="27" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="18" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="78">
     <cellStyle name="3232" xfId="68"/>
@@ -2488,6 +2614,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10952,18 +11083,18 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="J5" sqref="J5:AK5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="1"/>
+    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -11054,16 +11185,22 @@
       <c r="AK3" s="20"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="59"/>
+      <c r="A4" s="59">
+        <v>45428</v>
+      </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="54"/>
-      <c r="J4" s="21"/>
+      <c r="J4" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
@@ -12067,7 +12204,7 @@
       <c r="AJ29" s="27"/>
       <c r="AK29" s="28"/>
     </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1">
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
       <c r="A30" s="40"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -12207,18 +12344,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="7.625" style="3"/>
-    <col min="3" max="3" width="23.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="7.625" style="3"/>
+    <col min="1" max="2" width="7.6640625" style="3"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="7.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -12226,7 +12363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="21">
+    <row r="3" spans="2:6" ht="22.8">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -12255,26 +12392,29 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B8" s="66">
+      <c r="B8" s="77">
         <v>1</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="76" t="s">
-        <v>33</v>
+      <c r="D8" s="73" t="s">
+        <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="74" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B9" s="67"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="76" t="s">
-        <v>32</v>
+      <c r="B9" s="78"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="81" t="s">
+        <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="82" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12285,38 +12425,44 @@
       <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="70">
+      <c r="B11" s="79">
         <v>3</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="81">
         <v>10628</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
+      <c r="E11" s="82" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="71"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="76" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17.25">
+    <row r="16" spans="2:6" ht="16.2">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
@@ -12342,49 +12488,49 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="10"/>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="73" t="s">
-        <v>23</v>
+      <c r="E18" s="66" t="s">
+        <v>33</v>
       </c>
-      <c r="F18" s="74" t="s">
-        <v>24</v>
+      <c r="F18" s="67" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="10"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="10"/>
-      <c r="C20" s="75" t="s">
-        <v>26</v>
+      <c r="C20" s="69" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="E20" s="73" t="s">
-        <v>28</v>
+      <c r="E20" s="68" t="s">
+        <v>35</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="10"/>
-      <c r="C21" s="75"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_320_承認グループの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_PO_320_承認グループの管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\20_チェックイン\07_会計\03338\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\main\10_チェックアウト\07_会計\03453\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1130,10 +1130,6 @@
     <phoneticPr fontId="38"/>
   </si>
   <si>
-    <t>小澤副部長</t>
-    <phoneticPr fontId="38"/>
-  </si>
-  <si>
     <t>02584</t>
     <phoneticPr fontId="38"/>
   </si>
@@ -1147,45 +1143,6 @@
   </si>
   <si>
     <t>福田 敬仁</t>
-    <phoneticPr fontId="55"/>
-  </si>
-  <si>
-    <r>
-      <t>小澤 雅弘　→　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>福田 敬仁</t>
-    </r>
-    <phoneticPr fontId="55"/>
-  </si>
-  <si>
-    <r>
-      <t>高橋 穣　</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>or　浅葉 優也</t>
-    </r>
-    <rPh sb="8" eb="10">
-      <t>アサバ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウヤ</t>
-    </rPh>
     <phoneticPr fontId="55"/>
   </si>
   <si>
@@ -1240,16 +1197,89 @@
     </rPh>
     <phoneticPr fontId="38"/>
   </si>
+  <si>
+    <r>
+      <t>高橋 穣　</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>or　浅葉 優也</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>アサバ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウヤ</t>
+    </rPh>
+    <phoneticPr fontId="55"/>
+  </si>
+  <si>
+    <t>小澤副部長</t>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>承認者変更　　小澤副部長削除</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小澤 雅弘　→　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>福田 敬仁</t>
+    </r>
+    <phoneticPr fontId="55"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1641,13 +1671,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1662,6 +1685,21 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1771,13 +1809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,7 +2341,7 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2334,19 +2372,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="4" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="51" fillId="19" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2355,8 +2420,8 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2364,15 +2429,52 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2402,95 +2504,17 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2501,36 +2525,71 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="19" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="27" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="19" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="51" fillId="20" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="27" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="26" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="39" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="27" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="26" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="27" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="18" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="52" fillId="20" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="4" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="78">
     <cellStyle name="3232" xfId="68"/>
@@ -2616,6 +2675,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808080"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -11083,7 +11143,7 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:AK5"/>
+      <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
@@ -11095,1156 +11155,1233 @@
   <sheetData>
     <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
     <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="17"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="59"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="58">
+      <c r="A3" s="27">
         <v>44916</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="20"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="29"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="59">
+      <c r="A4" s="30">
         <v>45428</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="52" t="s">
-        <v>36</v>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="39" t="s">
+        <v>33</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="21" t="s">
-        <v>37</v>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="61" t="s">
+        <v>34</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="23"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="32"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="26"/>
+      <c r="A5" s="80">
+        <v>45716</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="82"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="59"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="51"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="54"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="34"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="54"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="57"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="54"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="28"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="43"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="28"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="43"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="28"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="43"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="28"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="43"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="28"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="43"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="28"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="43"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="28"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="43"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="28"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="43"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="28"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="43"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="28"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="43"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="28"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="43"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="28"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="43"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="28"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="43"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="28"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="43"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="28"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="43"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="28"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="43"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="28"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="43"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="28"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="43"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="28"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="43"/>
     </row>
     <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="39"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J28:AK28"/>
+    <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="J30:AK30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -12261,77 +12398,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12345,7 +12411,7 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
@@ -12392,74 +12458,77 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B8" s="77">
+      <c r="B8" s="65">
         <v>1</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="87" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="81" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="14">
+      <c r="B10" s="70">
         <v>2</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="79">
+      <c r="B11" s="72">
         <v>3</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="88">
         <v>10628</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>29</v>
+      <c r="E11" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="80"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="72" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
+      <c r="E12" s="77" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.2">
@@ -12488,49 +12557,49 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="10"/>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="64" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="66" t="s">
-        <v>33</v>
+      <c r="E18" s="79" t="s">
+        <v>32</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>34</v>
+      <c r="F18" s="78" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="10"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="68"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="10"/>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="68" t="s">
-        <v>35</v>
+      <c r="E20" s="79" t="s">
+        <v>37</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="10"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
